--- a/Experiments_epoch4_roberta.xlsx
+++ b/Experiments_epoch4_roberta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D501"/>
+  <dimension ref="A1:D776"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8455,6 +8455,4406 @@
         </is>
       </c>
     </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>230</v>
+      </c>
+      <c r="B502" t="n">
+        <v>1</v>
+      </c>
+      <c r="C502" t="n">
+        <v>0.9253566001666585</v>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>230</v>
+      </c>
+      <c r="B503" t="n">
+        <v>2</v>
+      </c>
+      <c r="C503" t="n">
+        <v>0.9217897417242634</v>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>230</v>
+      </c>
+      <c r="B504" t="n">
+        <v>3</v>
+      </c>
+      <c r="C504" t="n">
+        <v>0.9258417762869207</v>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>230</v>
+      </c>
+      <c r="B505" t="n">
+        <v>4</v>
+      </c>
+      <c r="C505" t="n">
+        <v>0.9271156402303943</v>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>230</v>
+      </c>
+      <c r="B506" t="n">
+        <v>5</v>
+      </c>
+      <c r="C506" t="n">
+        <v>0.926381904706857</v>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>235</v>
+      </c>
+      <c r="B507" t="n">
+        <v>1</v>
+      </c>
+      <c r="C507" t="n">
+        <v>0.9256811902022675</v>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>235</v>
+      </c>
+      <c r="B508" t="n">
+        <v>2</v>
+      </c>
+      <c r="C508" t="n">
+        <v>0.9247098560571844</v>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>235</v>
+      </c>
+      <c r="B509" t="n">
+        <v>3</v>
+      </c>
+      <c r="C509" t="n">
+        <v>0.9268342951360263</v>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>235</v>
+      </c>
+      <c r="B510" t="n">
+        <v>4</v>
+      </c>
+      <c r="C510" t="n">
+        <v>0.922671285604311</v>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>235</v>
+      </c>
+      <c r="B511" t="n">
+        <v>5</v>
+      </c>
+      <c r="C511" t="n">
+        <v>0.9282201210509333</v>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>240</v>
+      </c>
+      <c r="B512" t="n">
+        <v>1</v>
+      </c>
+      <c r="C512" t="n">
+        <v>0.9240805941004172</v>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>240</v>
+      </c>
+      <c r="B513" t="n">
+        <v>2</v>
+      </c>
+      <c r="C513" t="n">
+        <v>0.9228079559412021</v>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>240</v>
+      </c>
+      <c r="B514" t="n">
+        <v>3</v>
+      </c>
+      <c r="C514" t="n">
+        <v>0.9256195039966386</v>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>240</v>
+      </c>
+      <c r="B515" t="n">
+        <v>4</v>
+      </c>
+      <c r="C515" t="n">
+        <v>0.9201222131115536</v>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>240</v>
+      </c>
+      <c r="B516" t="n">
+        <v>5</v>
+      </c>
+      <c r="C516" t="n">
+        <v>0.9192053240535945</v>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>245</v>
+      </c>
+      <c r="B517" t="n">
+        <v>1</v>
+      </c>
+      <c r="C517" t="n">
+        <v>0.9275035736975857</v>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>245</v>
+      </c>
+      <c r="B518" t="n">
+        <v>2</v>
+      </c>
+      <c r="C518" t="n">
+        <v>0.9159298651329233</v>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>245</v>
+      </c>
+      <c r="B519" t="n">
+        <v>3</v>
+      </c>
+      <c r="C519" t="n">
+        <v>0.9219728263574379</v>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>245</v>
+      </c>
+      <c r="B520" t="n">
+        <v>4</v>
+      </c>
+      <c r="C520" t="n">
+        <v>0.9224831984974028</v>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>245</v>
+      </c>
+      <c r="B521" t="n">
+        <v>5</v>
+      </c>
+      <c r="C521" t="n">
+        <v>0.9287485551131704</v>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>250</v>
+      </c>
+      <c r="B522" t="n">
+        <v>1</v>
+      </c>
+      <c r="C522" t="n">
+        <v>0.9254567116759332</v>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>250</v>
+      </c>
+      <c r="B523" t="n">
+        <v>2</v>
+      </c>
+      <c r="C523" t="n">
+        <v>0.9265858162399561</v>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>250</v>
+      </c>
+      <c r="B524" t="n">
+        <v>3</v>
+      </c>
+      <c r="C524" t="n">
+        <v>0.9263575895959496</v>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>250</v>
+      </c>
+      <c r="B525" t="n">
+        <v>4</v>
+      </c>
+      <c r="C525" t="n">
+        <v>0.9233613774212482</v>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>250</v>
+      </c>
+      <c r="B526" t="n">
+        <v>5</v>
+      </c>
+      <c r="C526" t="n">
+        <v>0.9307265579789675</v>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>255</v>
+      </c>
+      <c r="B527" t="n">
+        <v>1</v>
+      </c>
+      <c r="C527" t="n">
+        <v>0.9292033614800186</v>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>255</v>
+      </c>
+      <c r="B528" t="n">
+        <v>2</v>
+      </c>
+      <c r="C528" t="n">
+        <v>0.927296998435959</v>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>255</v>
+      </c>
+      <c r="B529" t="n">
+        <v>3</v>
+      </c>
+      <c r="C529" t="n">
+        <v>0.9276022660833451</v>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>255</v>
+      </c>
+      <c r="B530" t="n">
+        <v>4</v>
+      </c>
+      <c r="C530" t="n">
+        <v>0.924155134525153</v>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>255</v>
+      </c>
+      <c r="B531" t="n">
+        <v>5</v>
+      </c>
+      <c r="C531" t="n">
+        <v>0.9263295943408412</v>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>260</v>
+      </c>
+      <c r="B532" t="n">
+        <v>1</v>
+      </c>
+      <c r="C532" t="n">
+        <v>0.9189806394244372</v>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>260</v>
+      </c>
+      <c r="B533" t="n">
+        <v>2</v>
+      </c>
+      <c r="C533" t="n">
+        <v>0.9277538399148375</v>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>260</v>
+      </c>
+      <c r="B534" t="n">
+        <v>3</v>
+      </c>
+      <c r="C534" t="n">
+        <v>0.9308054970408266</v>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>260</v>
+      </c>
+      <c r="B535" t="n">
+        <v>4</v>
+      </c>
+      <c r="C535" t="n">
+        <v>0.9285821260620826</v>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>260</v>
+      </c>
+      <c r="B536" t="n">
+        <v>5</v>
+      </c>
+      <c r="C536" t="n">
+        <v>0.9280345659163988</v>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>265</v>
+      </c>
+      <c r="B537" t="n">
+        <v>1</v>
+      </c>
+      <c r="C537" t="n">
+        <v>0.9251970903771132</v>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>265</v>
+      </c>
+      <c r="B538" t="n">
+        <v>2</v>
+      </c>
+      <c r="C538" t="n">
+        <v>0.9209730427243583</v>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>265</v>
+      </c>
+      <c r="B539" t="n">
+        <v>3</v>
+      </c>
+      <c r="C539" t="n">
+        <v>0.9251068031597615</v>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>265</v>
+      </c>
+      <c r="B540" t="n">
+        <v>4</v>
+      </c>
+      <c r="C540" t="n">
+        <v>0.9244029812908787</v>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>265</v>
+      </c>
+      <c r="B541" t="n">
+        <v>5</v>
+      </c>
+      <c r="C541" t="n">
+        <v>0.9303579937749029</v>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>270</v>
+      </c>
+      <c r="B542" t="n">
+        <v>1</v>
+      </c>
+      <c r="C542" t="n">
+        <v>0.9267565372078436</v>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>270</v>
+      </c>
+      <c r="B543" t="n">
+        <v>2</v>
+      </c>
+      <c r="C543" t="n">
+        <v>0.9266738704942098</v>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>270</v>
+      </c>
+      <c r="B544" t="n">
+        <v>3</v>
+      </c>
+      <c r="C544" t="n">
+        <v>0.9287700880892422</v>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>270</v>
+      </c>
+      <c r="B545" t="n">
+        <v>4</v>
+      </c>
+      <c r="C545" t="n">
+        <v>0.926547754534742</v>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>270</v>
+      </c>
+      <c r="B546" t="n">
+        <v>5</v>
+      </c>
+      <c r="C546" t="n">
+        <v>0.9287116097941904</v>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>275</v>
+      </c>
+      <c r="B547" t="n">
+        <v>1</v>
+      </c>
+      <c r="C547" t="n">
+        <v>0.9292234639158378</v>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>275</v>
+      </c>
+      <c r="B548" t="n">
+        <v>2</v>
+      </c>
+      <c r="C548" t="n">
+        <v>0.9294254794548812</v>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>275</v>
+      </c>
+      <c r="B549" t="n">
+        <v>3</v>
+      </c>
+      <c r="C549" t="n">
+        <v>0.9294531001915532</v>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>275</v>
+      </c>
+      <c r="B550" t="n">
+        <v>4</v>
+      </c>
+      <c r="C550" t="n">
+        <v>0.9243576876756323</v>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>275</v>
+      </c>
+      <c r="B551" t="n">
+        <v>5</v>
+      </c>
+      <c r="C551" t="n">
+        <v>0.9296113722343231</v>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>280</v>
+      </c>
+      <c r="B552" t="n">
+        <v>1</v>
+      </c>
+      <c r="C552" t="n">
+        <v>0.9288779254161398</v>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>280</v>
+      </c>
+      <c r="B553" t="n">
+        <v>2</v>
+      </c>
+      <c r="C553" t="n">
+        <v>0.9235428878064889</v>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>280</v>
+      </c>
+      <c r="B554" t="n">
+        <v>3</v>
+      </c>
+      <c r="C554" t="n">
+        <v>0.924978678260146</v>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>280</v>
+      </c>
+      <c r="B555" t="n">
+        <v>4</v>
+      </c>
+      <c r="C555" t="n">
+        <v>0.927777950326635</v>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>280</v>
+      </c>
+      <c r="B556" t="n">
+        <v>5</v>
+      </c>
+      <c r="C556" t="n">
+        <v>0.9277283666422518</v>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>285</v>
+      </c>
+      <c r="B557" t="n">
+        <v>1</v>
+      </c>
+      <c r="C557" t="n">
+        <v>0.9271474305671046</v>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>285</v>
+      </c>
+      <c r="B558" t="n">
+        <v>2</v>
+      </c>
+      <c r="C558" t="n">
+        <v>0.9290860747614827</v>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>285</v>
+      </c>
+      <c r="B559" t="n">
+        <v>3</v>
+      </c>
+      <c r="C559" t="n">
+        <v>0.9272123870196668</v>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>285</v>
+      </c>
+      <c r="B560" t="n">
+        <v>4</v>
+      </c>
+      <c r="C560" t="n">
+        <v>0.929078750623027</v>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>285</v>
+      </c>
+      <c r="B561" t="n">
+        <v>5</v>
+      </c>
+      <c r="C561" t="n">
+        <v>0.9316835097766677</v>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>290</v>
+      </c>
+      <c r="B562" t="n">
+        <v>1</v>
+      </c>
+      <c r="C562" t="n">
+        <v>0.9300521429479842</v>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>290</v>
+      </c>
+      <c r="B563" t="n">
+        <v>2</v>
+      </c>
+      <c r="C563" t="n">
+        <v>0.9267431226414102</v>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>290</v>
+      </c>
+      <c r="B564" t="n">
+        <v>3</v>
+      </c>
+      <c r="C564" t="n">
+        <v>0.9302313237151927</v>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>290</v>
+      </c>
+      <c r="B565" t="n">
+        <v>4</v>
+      </c>
+      <c r="C565" t="n">
+        <v>0.9277702772873611</v>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>290</v>
+      </c>
+      <c r="B566" t="n">
+        <v>5</v>
+      </c>
+      <c r="C566" t="n">
+        <v>0.9311325175735485</v>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>295</v>
+      </c>
+      <c r="B567" t="n">
+        <v>1</v>
+      </c>
+      <c r="C567" t="n">
+        <v>0.9318018976485659</v>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>295</v>
+      </c>
+      <c r="B568" t="n">
+        <v>2</v>
+      </c>
+      <c r="C568" t="n">
+        <v>0.9303587326525269</v>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>295</v>
+      </c>
+      <c r="B569" t="n">
+        <v>3</v>
+      </c>
+      <c r="C569" t="n">
+        <v>0.9266917293233082</v>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>295</v>
+      </c>
+      <c r="B570" t="n">
+        <v>4</v>
+      </c>
+      <c r="C570" t="n">
+        <v>0.9191562480234445</v>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>295</v>
+      </c>
+      <c r="B571" t="n">
+        <v>5</v>
+      </c>
+      <c r="C571" t="n">
+        <v>0.9296936910283909</v>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>300</v>
+      </c>
+      <c r="B572" t="n">
+        <v>1</v>
+      </c>
+      <c r="C572" t="n">
+        <v>0.9308257342718584</v>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>300</v>
+      </c>
+      <c r="B573" t="n">
+        <v>2</v>
+      </c>
+      <c r="C573" t="n">
+        <v>0.9275403310287031</v>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>300</v>
+      </c>
+      <c r="B574" t="n">
+        <v>3</v>
+      </c>
+      <c r="C574" t="n">
+        <v>0.9140542557160369</v>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>300</v>
+      </c>
+      <c r="B575" t="n">
+        <v>4</v>
+      </c>
+      <c r="C575" t="n">
+        <v>0.9308449227314614</v>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="n">
+        <v>300</v>
+      </c>
+      <c r="B576" t="n">
+        <v>5</v>
+      </c>
+      <c r="C576" t="n">
+        <v>0.9326370813345667</v>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n">
+        <v>305</v>
+      </c>
+      <c r="B577" t="n">
+        <v>1</v>
+      </c>
+      <c r="C577" t="n">
+        <v>0.9292519808794997</v>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="n">
+        <v>305</v>
+      </c>
+      <c r="B578" t="n">
+        <v>2</v>
+      </c>
+      <c r="C578" t="n">
+        <v>0.9315906325384796</v>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>305</v>
+      </c>
+      <c r="B579" t="n">
+        <v>3</v>
+      </c>
+      <c r="C579" t="n">
+        <v>0.9285003914598278</v>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="n">
+        <v>305</v>
+      </c>
+      <c r="B580" t="n">
+        <v>4</v>
+      </c>
+      <c r="C580" t="n">
+        <v>0.9299117815058495</v>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="n">
+        <v>305</v>
+      </c>
+      <c r="B581" t="n">
+        <v>5</v>
+      </c>
+      <c r="C581" t="n">
+        <v>0.9308213758740885</v>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="n">
+        <v>310</v>
+      </c>
+      <c r="B582" t="n">
+        <v>1</v>
+      </c>
+      <c r="C582" t="n">
+        <v>0.9289748658571025</v>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="n">
+        <v>310</v>
+      </c>
+      <c r="B583" t="n">
+        <v>2</v>
+      </c>
+      <c r="C583" t="n">
+        <v>0.9331184442884194</v>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="n">
+        <v>310</v>
+      </c>
+      <c r="B584" t="n">
+        <v>3</v>
+      </c>
+      <c r="C584" t="n">
+        <v>0.9318948150861279</v>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>310</v>
+      </c>
+      <c r="B585" t="n">
+        <v>4</v>
+      </c>
+      <c r="C585" t="n">
+        <v>0.9269960584979215</v>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n">
+        <v>310</v>
+      </c>
+      <c r="B586" t="n">
+        <v>5</v>
+      </c>
+      <c r="C586" t="n">
+        <v>0.9298426590511766</v>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>315</v>
+      </c>
+      <c r="B587" t="n">
+        <v>1</v>
+      </c>
+      <c r="C587" t="n">
+        <v>0.9335281864482566</v>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="n">
+        <v>315</v>
+      </c>
+      <c r="B588" t="n">
+        <v>2</v>
+      </c>
+      <c r="C588" t="n">
+        <v>0.9325836598682282</v>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="n">
+        <v>315</v>
+      </c>
+      <c r="B589" t="n">
+        <v>3</v>
+      </c>
+      <c r="C589" t="n">
+        <v>0.928013221837923</v>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="n">
+        <v>315</v>
+      </c>
+      <c r="B590" t="n">
+        <v>4</v>
+      </c>
+      <c r="C590" t="n">
+        <v>0.9301701081719056</v>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="n">
+        <v>315</v>
+      </c>
+      <c r="B591" t="n">
+        <v>5</v>
+      </c>
+      <c r="C591" t="n">
+        <v>0.9320975503062118</v>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="n">
+        <v>320</v>
+      </c>
+      <c r="B592" t="n">
+        <v>1</v>
+      </c>
+      <c r="C592" t="n">
+        <v>0.9308203159474009</v>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="n">
+        <v>320</v>
+      </c>
+      <c r="B593" t="n">
+        <v>2</v>
+      </c>
+      <c r="C593" t="n">
+        <v>0.9319285142704721</v>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="n">
+        <v>320</v>
+      </c>
+      <c r="B594" t="n">
+        <v>3</v>
+      </c>
+      <c r="C594" t="n">
+        <v>0.922803778911934</v>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n">
+        <v>320</v>
+      </c>
+      <c r="B595" t="n">
+        <v>4</v>
+      </c>
+      <c r="C595" t="n">
+        <v>0.9314155468176122</v>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="n">
+        <v>320</v>
+      </c>
+      <c r="B596" t="n">
+        <v>5</v>
+      </c>
+      <c r="C596" t="n">
+        <v>0.9310299150016558</v>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="n">
+        <v>325</v>
+      </c>
+      <c r="B597" t="n">
+        <v>1</v>
+      </c>
+      <c r="C597" t="n">
+        <v>0.9293372319688109</v>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="n">
+        <v>325</v>
+      </c>
+      <c r="B598" t="n">
+        <v>2</v>
+      </c>
+      <c r="C598" t="n">
+        <v>0.9295045360891468</v>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="n">
+        <v>325</v>
+      </c>
+      <c r="B599" t="n">
+        <v>3</v>
+      </c>
+      <c r="C599" t="n">
+        <v>0.933374183453513</v>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="n">
+        <v>325</v>
+      </c>
+      <c r="B600" t="n">
+        <v>4</v>
+      </c>
+      <c r="C600" t="n">
+        <v>0.9306476837620665</v>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="n">
+        <v>325</v>
+      </c>
+      <c r="B601" t="n">
+        <v>5</v>
+      </c>
+      <c r="C601" t="n">
+        <v>0.9269275920880679</v>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="n">
+        <v>330</v>
+      </c>
+      <c r="B602" t="n">
+        <v>1</v>
+      </c>
+      <c r="C602" t="n">
+        <v>0.9295651209230087</v>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="n">
+        <v>330</v>
+      </c>
+      <c r="B603" t="n">
+        <v>2</v>
+      </c>
+      <c r="C603" t="n">
+        <v>0.9340587166407601</v>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="n">
+        <v>330</v>
+      </c>
+      <c r="B604" t="n">
+        <v>3</v>
+      </c>
+      <c r="C604" t="n">
+        <v>0.9294692890891111</v>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="n">
+        <v>330</v>
+      </c>
+      <c r="B605" t="n">
+        <v>4</v>
+      </c>
+      <c r="C605" t="n">
+        <v>0.9211988256223874</v>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="n">
+        <v>330</v>
+      </c>
+      <c r="B606" t="n">
+        <v>5</v>
+      </c>
+      <c r="C606" t="n">
+        <v>0.9339078205717232</v>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="n">
+        <v>335</v>
+      </c>
+      <c r="B607" t="n">
+        <v>1</v>
+      </c>
+      <c r="C607" t="n">
+        <v>0.9310499517753403</v>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="n">
+        <v>335</v>
+      </c>
+      <c r="B608" t="n">
+        <v>2</v>
+      </c>
+      <c r="C608" t="n">
+        <v>0.9315086723151311</v>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="n">
+        <v>335</v>
+      </c>
+      <c r="B609" t="n">
+        <v>3</v>
+      </c>
+      <c r="C609" t="n">
+        <v>0.9320491179293682</v>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="n">
+        <v>335</v>
+      </c>
+      <c r="B610" t="n">
+        <v>4</v>
+      </c>
+      <c r="C610" t="n">
+        <v>0.9267122835581175</v>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="n">
+        <v>335</v>
+      </c>
+      <c r="B611" t="n">
+        <v>5</v>
+      </c>
+      <c r="C611" t="n">
+        <v>0.9332885906040268</v>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="n">
+        <v>340</v>
+      </c>
+      <c r="B612" t="n">
+        <v>1</v>
+      </c>
+      <c r="C612" t="n">
+        <v>0.9317098398992625</v>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="n">
+        <v>340</v>
+      </c>
+      <c r="B613" t="n">
+        <v>2</v>
+      </c>
+      <c r="C613" t="n">
+        <v>0.9313020313020313</v>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="n">
+        <v>340</v>
+      </c>
+      <c r="B614" t="n">
+        <v>3</v>
+      </c>
+      <c r="C614" t="n">
+        <v>0.9332484560145632</v>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="n">
+        <v>340</v>
+      </c>
+      <c r="B615" t="n">
+        <v>4</v>
+      </c>
+      <c r="C615" t="n">
+        <v>0.932190021183576</v>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="n">
+        <v>340</v>
+      </c>
+      <c r="B616" t="n">
+        <v>5</v>
+      </c>
+      <c r="C616" t="n">
+        <v>0.9349095935611887</v>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="n">
+        <v>345</v>
+      </c>
+      <c r="B617" t="n">
+        <v>1</v>
+      </c>
+      <c r="C617" t="n">
+        <v>0.9281283495632739</v>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="n">
+        <v>345</v>
+      </c>
+      <c r="B618" t="n">
+        <v>2</v>
+      </c>
+      <c r="C618" t="n">
+        <v>0.9314600899699347</v>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="n">
+        <v>345</v>
+      </c>
+      <c r="B619" t="n">
+        <v>3</v>
+      </c>
+      <c r="C619" t="n">
+        <v>0.9342492639842983</v>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="n">
+        <v>345</v>
+      </c>
+      <c r="B620" t="n">
+        <v>4</v>
+      </c>
+      <c r="C620" t="n">
+        <v>0.9304422974649885</v>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="n">
+        <v>345</v>
+      </c>
+      <c r="B621" t="n">
+        <v>5</v>
+      </c>
+      <c r="C621" t="n">
+        <v>0.9306455240665767</v>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="n">
+        <v>350</v>
+      </c>
+      <c r="B622" t="n">
+        <v>1</v>
+      </c>
+      <c r="C622" t="n">
+        <v>0.9323798181526693</v>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="n">
+        <v>350</v>
+      </c>
+      <c r="B623" t="n">
+        <v>2</v>
+      </c>
+      <c r="C623" t="n">
+        <v>0.9329198150445472</v>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="n">
+        <v>350</v>
+      </c>
+      <c r="B624" t="n">
+        <v>3</v>
+      </c>
+      <c r="C624" t="n">
+        <v>0.934158833792987</v>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="n">
+        <v>350</v>
+      </c>
+      <c r="B625" t="n">
+        <v>4</v>
+      </c>
+      <c r="C625" t="n">
+        <v>0.9328347379583636</v>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="n">
+        <v>350</v>
+      </c>
+      <c r="B626" t="n">
+        <v>5</v>
+      </c>
+      <c r="C626" t="n">
+        <v>0.9325429783941839</v>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="n">
+        <v>355</v>
+      </c>
+      <c r="B627" t="n">
+        <v>1</v>
+      </c>
+      <c r="C627" t="n">
+        <v>0.9295106980211282</v>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="n">
+        <v>355</v>
+      </c>
+      <c r="B628" t="n">
+        <v>2</v>
+      </c>
+      <c r="C628" t="n">
+        <v>0.9333761585757548</v>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="n">
+        <v>355</v>
+      </c>
+      <c r="B629" t="n">
+        <v>3</v>
+      </c>
+      <c r="C629" t="n">
+        <v>0.9298327348756875</v>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="n">
+        <v>355</v>
+      </c>
+      <c r="B630" t="n">
+        <v>4</v>
+      </c>
+      <c r="C630" t="n">
+        <v>0.9206767718699862</v>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="n">
+        <v>355</v>
+      </c>
+      <c r="B631" t="n">
+        <v>5</v>
+      </c>
+      <c r="C631" t="n">
+        <v>0.9326029101717762</v>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="n">
+        <v>360</v>
+      </c>
+      <c r="B632" t="n">
+        <v>1</v>
+      </c>
+      <c r="C632" t="n">
+        <v>0.9338782353557582</v>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="n">
+        <v>360</v>
+      </c>
+      <c r="B633" t="n">
+        <v>2</v>
+      </c>
+      <c r="C633" t="n">
+        <v>0.9319119351100811</v>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="n">
+        <v>360</v>
+      </c>
+      <c r="B634" t="n">
+        <v>3</v>
+      </c>
+      <c r="C634" t="n">
+        <v>0.9303026802218115</v>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="n">
+        <v>360</v>
+      </c>
+      <c r="B635" t="n">
+        <v>4</v>
+      </c>
+      <c r="C635" t="n">
+        <v>0.9306524132868417</v>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="n">
+        <v>360</v>
+      </c>
+      <c r="B636" t="n">
+        <v>5</v>
+      </c>
+      <c r="C636" t="n">
+        <v>0.928807068539922</v>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="n">
+        <v>365</v>
+      </c>
+      <c r="B637" t="n">
+        <v>1</v>
+      </c>
+      <c r="C637" t="n">
+        <v>0.9329078691464707</v>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="n">
+        <v>365</v>
+      </c>
+      <c r="B638" t="n">
+        <v>2</v>
+      </c>
+      <c r="C638" t="n">
+        <v>0.931715977713665</v>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="n">
+        <v>365</v>
+      </c>
+      <c r="B639" t="n">
+        <v>3</v>
+      </c>
+      <c r="C639" t="n">
+        <v>0.9319213313161876</v>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="n">
+        <v>365</v>
+      </c>
+      <c r="B640" t="n">
+        <v>4</v>
+      </c>
+      <c r="C640" t="n">
+        <v>0.9310685020543652</v>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="n">
+        <v>365</v>
+      </c>
+      <c r="B641" t="n">
+        <v>5</v>
+      </c>
+      <c r="C641" t="n">
+        <v>0.9331623713433667</v>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="n">
+        <v>370</v>
+      </c>
+      <c r="B642" t="n">
+        <v>1</v>
+      </c>
+      <c r="C642" t="n">
+        <v>0.9330272624006059</v>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="n">
+        <v>370</v>
+      </c>
+      <c r="B643" t="n">
+        <v>2</v>
+      </c>
+      <c r="C643" t="n">
+        <v>0.9324527729484382</v>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="n">
+        <v>370</v>
+      </c>
+      <c r="B644" t="n">
+        <v>3</v>
+      </c>
+      <c r="C644" t="n">
+        <v>0.9333613572938195</v>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="n">
+        <v>370</v>
+      </c>
+      <c r="B645" t="n">
+        <v>4</v>
+      </c>
+      <c r="C645" t="n">
+        <v>0.9260015692790547</v>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="n">
+        <v>370</v>
+      </c>
+      <c r="B646" t="n">
+        <v>5</v>
+      </c>
+      <c r="C646" t="n">
+        <v>0.9356494368298039</v>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="n">
+        <v>375</v>
+      </c>
+      <c r="B647" t="n">
+        <v>1</v>
+      </c>
+      <c r="C647" t="n">
+        <v>0.9297052422407267</v>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="n">
+        <v>375</v>
+      </c>
+      <c r="B648" t="n">
+        <v>2</v>
+      </c>
+      <c r="C648" t="n">
+        <v>0.9328235224376075</v>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="n">
+        <v>375</v>
+      </c>
+      <c r="B649" t="n">
+        <v>3</v>
+      </c>
+      <c r="C649" t="n">
+        <v>0.9324992997852675</v>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="n">
+        <v>375</v>
+      </c>
+      <c r="B650" t="n">
+        <v>4</v>
+      </c>
+      <c r="C650" t="n">
+        <v>0.9327227485660214</v>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="n">
+        <v>375</v>
+      </c>
+      <c r="B651" t="n">
+        <v>5</v>
+      </c>
+      <c r="C651" t="n">
+        <v>0.9355957394104533</v>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="n">
+        <v>380</v>
+      </c>
+      <c r="B652" t="n">
+        <v>1</v>
+      </c>
+      <c r="C652" t="n">
+        <v>0.9324792077303976</v>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="n">
+        <v>380</v>
+      </c>
+      <c r="B653" t="n">
+        <v>2</v>
+      </c>
+      <c r="C653" t="n">
+        <v>0.932176898940264</v>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="n">
+        <v>380</v>
+      </c>
+      <c r="B654" t="n">
+        <v>3</v>
+      </c>
+      <c r="C654" t="n">
+        <v>0.9338561687036618</v>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="n">
+        <v>380</v>
+      </c>
+      <c r="B655" t="n">
+        <v>4</v>
+      </c>
+      <c r="C655" t="n">
+        <v>0.931550852110126</v>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="n">
+        <v>380</v>
+      </c>
+      <c r="B656" t="n">
+        <v>5</v>
+      </c>
+      <c r="C656" t="n">
+        <v>0.9346537257058163</v>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="n">
+        <v>385</v>
+      </c>
+      <c r="B657" t="n">
+        <v>1</v>
+      </c>
+      <c r="C657" t="n">
+        <v>0.9364287603067382</v>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="n">
+        <v>385</v>
+      </c>
+      <c r="B658" t="n">
+        <v>2</v>
+      </c>
+      <c r="C658" t="n">
+        <v>0.9247462919594067</v>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="n">
+        <v>385</v>
+      </c>
+      <c r="B659" t="n">
+        <v>3</v>
+      </c>
+      <c r="C659" t="n">
+        <v>0.9346406809169165</v>
+      </c>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="n">
+        <v>385</v>
+      </c>
+      <c r="B660" t="n">
+        <v>4</v>
+      </c>
+      <c r="C660" t="n">
+        <v>0.9293235405970717</v>
+      </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="n">
+        <v>385</v>
+      </c>
+      <c r="B661" t="n">
+        <v>5</v>
+      </c>
+      <c r="C661" t="n">
+        <v>0.9368618664082844</v>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="n">
+        <v>390</v>
+      </c>
+      <c r="B662" t="n">
+        <v>1</v>
+      </c>
+      <c r="C662" t="n">
+        <v>0.93531710249474</v>
+      </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="n">
+        <v>390</v>
+      </c>
+      <c r="B663" t="n">
+        <v>2</v>
+      </c>
+      <c r="C663" t="n">
+        <v>0.9310842851468942</v>
+      </c>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="n">
+        <v>390</v>
+      </c>
+      <c r="B664" t="n">
+        <v>3</v>
+      </c>
+      <c r="C664" t="n">
+        <v>0.9303468699177124</v>
+      </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="n">
+        <v>390</v>
+      </c>
+      <c r="B665" t="n">
+        <v>4</v>
+      </c>
+      <c r="C665" t="n">
+        <v>0.9138692846853173</v>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="n">
+        <v>390</v>
+      </c>
+      <c r="B666" t="n">
+        <v>5</v>
+      </c>
+      <c r="C666" t="n">
+        <v>0.9319669660618483</v>
+      </c>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="n">
+        <v>395</v>
+      </c>
+      <c r="B667" t="n">
+        <v>1</v>
+      </c>
+      <c r="C667" t="n">
+        <v>0.9335675425114055</v>
+      </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="n">
+        <v>395</v>
+      </c>
+      <c r="B668" t="n">
+        <v>2</v>
+      </c>
+      <c r="C668" t="n">
+        <v>0.932277074678775</v>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="n">
+        <v>395</v>
+      </c>
+      <c r="B669" t="n">
+        <v>3</v>
+      </c>
+      <c r="C669" t="n">
+        <v>0.9347026439874589</v>
+      </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="n">
+        <v>395</v>
+      </c>
+      <c r="B670" t="n">
+        <v>4</v>
+      </c>
+      <c r="C670" t="n">
+        <v>0.9358176322297758</v>
+      </c>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="n">
+        <v>395</v>
+      </c>
+      <c r="B671" t="n">
+        <v>5</v>
+      </c>
+      <c r="C671" t="n">
+        <v>0.9336716898986133</v>
+      </c>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="n">
+        <v>400</v>
+      </c>
+      <c r="B672" t="n">
+        <v>1</v>
+      </c>
+      <c r="C672" t="n">
+        <v>0.9347842097510679</v>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="n">
+        <v>400</v>
+      </c>
+      <c r="B673" t="n">
+        <v>2</v>
+      </c>
+      <c r="C673" t="n">
+        <v>0.9321163719338277</v>
+      </c>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="n">
+        <v>400</v>
+      </c>
+      <c r="B674" t="n">
+        <v>3</v>
+      </c>
+      <c r="C674" t="n">
+        <v>0.9333000499251123</v>
+      </c>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="n">
+        <v>400</v>
+      </c>
+      <c r="B675" t="n">
+        <v>4</v>
+      </c>
+      <c r="C675" t="n">
+        <v>0.9325119663964052</v>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="n">
+        <v>400</v>
+      </c>
+      <c r="B676" t="n">
+        <v>5</v>
+      </c>
+      <c r="C676" t="n">
+        <v>0.9346256223197121</v>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="n">
+        <v>405</v>
+      </c>
+      <c r="B677" t="n">
+        <v>1</v>
+      </c>
+      <c r="C677" t="n">
+        <v>0.9312890615273524</v>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="n">
+        <v>405</v>
+      </c>
+      <c r="B678" t="n">
+        <v>2</v>
+      </c>
+      <c r="C678" t="n">
+        <v>0.9323365709920332</v>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="n">
+        <v>405</v>
+      </c>
+      <c r="B679" t="n">
+        <v>3</v>
+      </c>
+      <c r="C679" t="n">
+        <v>0.9332270256017478</v>
+      </c>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="n">
+        <v>405</v>
+      </c>
+      <c r="B680" t="n">
+        <v>4</v>
+      </c>
+      <c r="C680" t="n">
+        <v>0.9309625768013405</v>
+      </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="n">
+        <v>405</v>
+      </c>
+      <c r="B681" t="n">
+        <v>5</v>
+      </c>
+      <c r="C681" t="n">
+        <v>0.9344187536974956</v>
+      </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="n">
+        <v>410</v>
+      </c>
+      <c r="B682" t="n">
+        <v>1</v>
+      </c>
+      <c r="C682" t="n">
+        <v>0.9354091546474359</v>
+      </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="n">
+        <v>410</v>
+      </c>
+      <c r="B683" t="n">
+        <v>2</v>
+      </c>
+      <c r="C683" t="n">
+        <v>0.9340819955664904</v>
+      </c>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="n">
+        <v>410</v>
+      </c>
+      <c r="B684" t="n">
+        <v>3</v>
+      </c>
+      <c r="C684" t="n">
+        <v>0.9353665466944497</v>
+      </c>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="n">
+        <v>410</v>
+      </c>
+      <c r="B685" t="n">
+        <v>4</v>
+      </c>
+      <c r="C685" t="n">
+        <v>0.932799902272172</v>
+      </c>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="n">
+        <v>410</v>
+      </c>
+      <c r="B686" t="n">
+        <v>5</v>
+      </c>
+      <c r="C686" t="n">
+        <v>0.936553135362351</v>
+      </c>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="n">
+        <v>415</v>
+      </c>
+      <c r="B687" t="n">
+        <v>1</v>
+      </c>
+      <c r="C687" t="n">
+        <v>0.9327942520246842</v>
+      </c>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="n">
+        <v>415</v>
+      </c>
+      <c r="B688" t="n">
+        <v>2</v>
+      </c>
+      <c r="C688" t="n">
+        <v>0.9348268583203498</v>
+      </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>415</v>
+      </c>
+      <c r="B689" t="n">
+        <v>3</v>
+      </c>
+      <c r="C689" t="n">
+        <v>0.9336807801067701</v>
+      </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="n">
+        <v>415</v>
+      </c>
+      <c r="B690" t="n">
+        <v>4</v>
+      </c>
+      <c r="C690" t="n">
+        <v>0.9306645832558255</v>
+      </c>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="n">
+        <v>415</v>
+      </c>
+      <c r="B691" t="n">
+        <v>5</v>
+      </c>
+      <c r="C691" t="n">
+        <v>0.9357659023998572</v>
+      </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="n">
+        <v>420</v>
+      </c>
+      <c r="B692" t="n">
+        <v>1</v>
+      </c>
+      <c r="C692" t="n">
+        <v>0.9338113693459407</v>
+      </c>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="n">
+        <v>420</v>
+      </c>
+      <c r="B693" t="n">
+        <v>2</v>
+      </c>
+      <c r="C693" t="n">
+        <v>0.9346427950634452</v>
+      </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="n">
+        <v>420</v>
+      </c>
+      <c r="B694" t="n">
+        <v>3</v>
+      </c>
+      <c r="C694" t="n">
+        <v>0.9340484295715845</v>
+      </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="n">
+        <v>420</v>
+      </c>
+      <c r="B695" t="n">
+        <v>4</v>
+      </c>
+      <c r="C695" t="n">
+        <v>0.9329772592396177</v>
+      </c>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="n">
+        <v>420</v>
+      </c>
+      <c r="B696" t="n">
+        <v>5</v>
+      </c>
+      <c r="C696" t="n">
+        <v>0.9388406829690323</v>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="n">
+        <v>425</v>
+      </c>
+      <c r="B697" t="n">
+        <v>1</v>
+      </c>
+      <c r="C697" t="n">
+        <v>0.9338066243904903</v>
+      </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="n">
+        <v>425</v>
+      </c>
+      <c r="B698" t="n">
+        <v>2</v>
+      </c>
+      <c r="C698" t="n">
+        <v>0.9335018124266095</v>
+      </c>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="n">
+        <v>425</v>
+      </c>
+      <c r="B699" t="n">
+        <v>3</v>
+      </c>
+      <c r="C699" t="n">
+        <v>0.9320588425895924</v>
+      </c>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="n">
+        <v>425</v>
+      </c>
+      <c r="B700" t="n">
+        <v>4</v>
+      </c>
+      <c r="C700" t="n">
+        <v>0.9319520338114113</v>
+      </c>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="n">
+        <v>425</v>
+      </c>
+      <c r="B701" t="n">
+        <v>5</v>
+      </c>
+      <c r="C701" t="n">
+        <v>0.9360163921750561</v>
+      </c>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="n">
+        <v>430</v>
+      </c>
+      <c r="B702" t="n">
+        <v>1</v>
+      </c>
+      <c r="C702" t="n">
+        <v>0.9322522803461448</v>
+      </c>
+      <c r="D702" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="n">
+        <v>430</v>
+      </c>
+      <c r="B703" t="n">
+        <v>2</v>
+      </c>
+      <c r="C703" t="n">
+        <v>0.9343261812459218</v>
+      </c>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="n">
+        <v>430</v>
+      </c>
+      <c r="B704" t="n">
+        <v>3</v>
+      </c>
+      <c r="C704" t="n">
+        <v>0.9322667366074355</v>
+      </c>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="n">
+        <v>430</v>
+      </c>
+      <c r="B705" t="n">
+        <v>4</v>
+      </c>
+      <c r="C705" t="n">
+        <v>0.9363713080168776</v>
+      </c>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="n">
+        <v>430</v>
+      </c>
+      <c r="B706" t="n">
+        <v>5</v>
+      </c>
+      <c r="C706" t="n">
+        <v>0.9353434755332497</v>
+      </c>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="n">
+        <v>435</v>
+      </c>
+      <c r="B707" t="n">
+        <v>1</v>
+      </c>
+      <c r="C707" t="n">
+        <v>0.9288434970109363</v>
+      </c>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="n">
+        <v>435</v>
+      </c>
+      <c r="B708" t="n">
+        <v>2</v>
+      </c>
+      <c r="C708" t="n">
+        <v>0.9352419904567144</v>
+      </c>
+      <c r="D708" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="n">
+        <v>435</v>
+      </c>
+      <c r="B709" t="n">
+        <v>3</v>
+      </c>
+      <c r="C709" t="n">
+        <v>0.9325520492339924</v>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="n">
+        <v>435</v>
+      </c>
+      <c r="B710" t="n">
+        <v>4</v>
+      </c>
+      <c r="C710" t="n">
+        <v>0.9333826410785421</v>
+      </c>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="n">
+        <v>435</v>
+      </c>
+      <c r="B711" t="n">
+        <v>5</v>
+      </c>
+      <c r="C711" t="n">
+        <v>0.9353544419074267</v>
+      </c>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="n">
+        <v>440</v>
+      </c>
+      <c r="B712" t="n">
+        <v>1</v>
+      </c>
+      <c r="C712" t="n">
+        <v>0.9347868355217961</v>
+      </c>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="n">
+        <v>440</v>
+      </c>
+      <c r="B713" t="n">
+        <v>2</v>
+      </c>
+      <c r="C713" t="n">
+        <v>0.9314745908251152</v>
+      </c>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="n">
+        <v>440</v>
+      </c>
+      <c r="B714" t="n">
+        <v>3</v>
+      </c>
+      <c r="C714" t="n">
+        <v>0.9349865056248831</v>
+      </c>
+      <c r="D714" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="n">
+        <v>440</v>
+      </c>
+      <c r="B715" t="n">
+        <v>4</v>
+      </c>
+      <c r="C715" t="n">
+        <v>0.9321306294442981</v>
+      </c>
+      <c r="D715" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="n">
+        <v>440</v>
+      </c>
+      <c r="B716" t="n">
+        <v>5</v>
+      </c>
+      <c r="C716" t="n">
+        <v>0.9334668971296878</v>
+      </c>
+      <c r="D716" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="n">
+        <v>445</v>
+      </c>
+      <c r="B717" t="n">
+        <v>1</v>
+      </c>
+      <c r="C717" t="n">
+        <v>0.9321496764612284</v>
+      </c>
+      <c r="D717" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="n">
+        <v>445</v>
+      </c>
+      <c r="B718" t="n">
+        <v>2</v>
+      </c>
+      <c r="C718" t="n">
+        <v>0.9326665523110824</v>
+      </c>
+      <c r="D718" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="n">
+        <v>445</v>
+      </c>
+      <c r="B719" t="n">
+        <v>3</v>
+      </c>
+      <c r="C719" t="n">
+        <v>0.9314833203617724</v>
+      </c>
+      <c r="D719" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="n">
+        <v>445</v>
+      </c>
+      <c r="B720" t="n">
+        <v>4</v>
+      </c>
+      <c r="C720" t="n">
+        <v>0.9343314946151826</v>
+      </c>
+      <c r="D720" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="n">
+        <v>445</v>
+      </c>
+      <c r="B721" t="n">
+        <v>5</v>
+      </c>
+      <c r="C721" t="n">
+        <v>0.9370646963798628</v>
+      </c>
+      <c r="D721" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="n">
+        <v>450</v>
+      </c>
+      <c r="B722" t="n">
+        <v>1</v>
+      </c>
+      <c r="C722" t="n">
+        <v>0.9293633238280521</v>
+      </c>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="n">
+        <v>450</v>
+      </c>
+      <c r="B723" t="n">
+        <v>2</v>
+      </c>
+      <c r="C723" t="n">
+        <v>0.937701253426298</v>
+      </c>
+      <c r="D723" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="n">
+        <v>450</v>
+      </c>
+      <c r="B724" t="n">
+        <v>3</v>
+      </c>
+      <c r="C724" t="n">
+        <v>0.9362603223493799</v>
+      </c>
+      <c r="D724" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="n">
+        <v>450</v>
+      </c>
+      <c r="B725" t="n">
+        <v>4</v>
+      </c>
+      <c r="C725" t="n">
+        <v>0.9316509929670448</v>
+      </c>
+      <c r="D725" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="n">
+        <v>450</v>
+      </c>
+      <c r="B726" t="n">
+        <v>5</v>
+      </c>
+      <c r="C726" t="n">
+        <v>0.9385164243403339</v>
+      </c>
+      <c r="D726" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="n">
+        <v>455</v>
+      </c>
+      <c r="B727" t="n">
+        <v>1</v>
+      </c>
+      <c r="C727" t="n">
+        <v>0.933385999678646</v>
+      </c>
+      <c r="D727" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="n">
+        <v>455</v>
+      </c>
+      <c r="B728" t="n">
+        <v>2</v>
+      </c>
+      <c r="C728" t="n">
+        <v>0.9369874554094433</v>
+      </c>
+      <c r="D728" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="n">
+        <v>455</v>
+      </c>
+      <c r="B729" t="n">
+        <v>3</v>
+      </c>
+      <c r="C729" t="n">
+        <v>0.9352116819555508</v>
+      </c>
+      <c r="D729" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="n">
+        <v>455</v>
+      </c>
+      <c r="B730" t="n">
+        <v>4</v>
+      </c>
+      <c r="C730" t="n">
+        <v>0.9335267491370163</v>
+      </c>
+      <c r="D730" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="n">
+        <v>455</v>
+      </c>
+      <c r="B731" t="n">
+        <v>5</v>
+      </c>
+      <c r="C731" t="n">
+        <v>0.9307696361288963</v>
+      </c>
+      <c r="D731" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="n">
+        <v>460</v>
+      </c>
+      <c r="B732" t="n">
+        <v>1</v>
+      </c>
+      <c r="C732" t="n">
+        <v>0.9350603264726757</v>
+      </c>
+      <c r="D732" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="n">
+        <v>460</v>
+      </c>
+      <c r="B733" t="n">
+        <v>2</v>
+      </c>
+      <c r="C733" t="n">
+        <v>0.9357441077441078</v>
+      </c>
+      <c r="D733" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="n">
+        <v>460</v>
+      </c>
+      <c r="B734" t="n">
+        <v>3</v>
+      </c>
+      <c r="C734" t="n">
+        <v>0.9361353561496737</v>
+      </c>
+      <c r="D734" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="n">
+        <v>460</v>
+      </c>
+      <c r="B735" t="n">
+        <v>4</v>
+      </c>
+      <c r="C735" t="n">
+        <v>0.9325694736699203</v>
+      </c>
+      <c r="D735" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="n">
+        <v>460</v>
+      </c>
+      <c r="B736" t="n">
+        <v>5</v>
+      </c>
+      <c r="C736" t="n">
+        <v>0.9373927605660869</v>
+      </c>
+      <c r="D736" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="n">
+        <v>465</v>
+      </c>
+      <c r="B737" t="n">
+        <v>1</v>
+      </c>
+      <c r="C737" t="n">
+        <v>0.9348325229605619</v>
+      </c>
+      <c r="D737" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="n">
+        <v>465</v>
+      </c>
+      <c r="B738" t="n">
+        <v>2</v>
+      </c>
+      <c r="C738" t="n">
+        <v>0.9268115552208295</v>
+      </c>
+      <c r="D738" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="n">
+        <v>465</v>
+      </c>
+      <c r="B739" t="n">
+        <v>3</v>
+      </c>
+      <c r="C739" t="n">
+        <v>0.9325788084988196</v>
+      </c>
+      <c r="D739" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="n">
+        <v>465</v>
+      </c>
+      <c r="B740" t="n">
+        <v>4</v>
+      </c>
+      <c r="C740" t="n">
+        <v>0.9339864864864865</v>
+      </c>
+      <c r="D740" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="n">
+        <v>465</v>
+      </c>
+      <c r="B741" t="n">
+        <v>5</v>
+      </c>
+      <c r="C741" t="n">
+        <v>0.9376146282940552</v>
+      </c>
+      <c r="D741" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="n">
+        <v>470</v>
+      </c>
+      <c r="B742" t="n">
+        <v>1</v>
+      </c>
+      <c r="C742" t="n">
+        <v>0.9338933174916763</v>
+      </c>
+      <c r="D742" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="n">
+        <v>470</v>
+      </c>
+      <c r="B743" t="n">
+        <v>2</v>
+      </c>
+      <c r="C743" t="n">
+        <v>0.9357302507987439</v>
+      </c>
+      <c r="D743" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="n">
+        <v>470</v>
+      </c>
+      <c r="B744" t="n">
+        <v>3</v>
+      </c>
+      <c r="C744" t="n">
+        <v>0.929993031358885</v>
+      </c>
+      <c r="D744" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="n">
+        <v>470</v>
+      </c>
+      <c r="B745" t="n">
+        <v>4</v>
+      </c>
+      <c r="C745" t="n">
+        <v>0.9304749267429646</v>
+      </c>
+      <c r="D745" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="n">
+        <v>470</v>
+      </c>
+      <c r="B746" t="n">
+        <v>5</v>
+      </c>
+      <c r="C746" t="n">
+        <v>0.9371835245480904</v>
+      </c>
+      <c r="D746" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="n">
+        <v>475</v>
+      </c>
+      <c r="B747" t="n">
+        <v>1</v>
+      </c>
+      <c r="C747" t="n">
+        <v>0.9325943886387253</v>
+      </c>
+      <c r="D747" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="n">
+        <v>475</v>
+      </c>
+      <c r="B748" t="n">
+        <v>2</v>
+      </c>
+      <c r="C748" t="n">
+        <v>0.9324998273122884</v>
+      </c>
+      <c r="D748" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="n">
+        <v>475</v>
+      </c>
+      <c r="B749" t="n">
+        <v>3</v>
+      </c>
+      <c r="C749" t="n">
+        <v>0.9339124192390524</v>
+      </c>
+      <c r="D749" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="n">
+        <v>475</v>
+      </c>
+      <c r="B750" t="n">
+        <v>4</v>
+      </c>
+      <c r="C750" t="n">
+        <v>0.935204332840965</v>
+      </c>
+      <c r="D750" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="n">
+        <v>475</v>
+      </c>
+      <c r="B751" t="n">
+        <v>5</v>
+      </c>
+      <c r="C751" t="n">
+        <v>0.9372213279391445</v>
+      </c>
+      <c r="D751" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="n">
+        <v>480</v>
+      </c>
+      <c r="B752" t="n">
+        <v>1</v>
+      </c>
+      <c r="C752" t="n">
+        <v>0.9311099882095334</v>
+      </c>
+      <c r="D752" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="n">
+        <v>480</v>
+      </c>
+      <c r="B753" t="n">
+        <v>2</v>
+      </c>
+      <c r="C753" t="n">
+        <v>0.936684368696225</v>
+      </c>
+      <c r="D753" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="n">
+        <v>480</v>
+      </c>
+      <c r="B754" t="n">
+        <v>3</v>
+      </c>
+      <c r="C754" t="n">
+        <v>0.9352989589499978</v>
+      </c>
+      <c r="D754" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="n">
+        <v>480</v>
+      </c>
+      <c r="B755" t="n">
+        <v>4</v>
+      </c>
+      <c r="C755" t="n">
+        <v>0.9296358320797026</v>
+      </c>
+      <c r="D755" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="n">
+        <v>480</v>
+      </c>
+      <c r="B756" t="n">
+        <v>5</v>
+      </c>
+      <c r="C756" t="n">
+        <v>0.9378992242644489</v>
+      </c>
+      <c r="D756" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="n">
+        <v>485</v>
+      </c>
+      <c r="B757" t="n">
+        <v>1</v>
+      </c>
+      <c r="C757" t="n">
+        <v>0.934751532135932</v>
+      </c>
+      <c r="D757" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="n">
+        <v>485</v>
+      </c>
+      <c r="B758" t="n">
+        <v>2</v>
+      </c>
+      <c r="C758" t="n">
+        <v>0.9346142697420183</v>
+      </c>
+      <c r="D758" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="n">
+        <v>485</v>
+      </c>
+      <c r="B759" t="n">
+        <v>3</v>
+      </c>
+      <c r="C759" t="n">
+        <v>0.9370279938674692</v>
+      </c>
+      <c r="D759" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="n">
+        <v>485</v>
+      </c>
+      <c r="B760" t="n">
+        <v>4</v>
+      </c>
+      <c r="C760" t="n">
+        <v>0.9351042559268781</v>
+      </c>
+      <c r="D760" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="n">
+        <v>485</v>
+      </c>
+      <c r="B761" t="n">
+        <v>5</v>
+      </c>
+      <c r="C761" t="n">
+        <v>0.9379921541677405</v>
+      </c>
+      <c r="D761" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="n">
+        <v>490</v>
+      </c>
+      <c r="B762" t="n">
+        <v>1</v>
+      </c>
+      <c r="C762" t="n">
+        <v>0.9342197843224537</v>
+      </c>
+      <c r="D762" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="n">
+        <v>490</v>
+      </c>
+      <c r="B763" t="n">
+        <v>2</v>
+      </c>
+      <c r="C763" t="n">
+        <v>0.9340977026818418</v>
+      </c>
+      <c r="D763" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="n">
+        <v>490</v>
+      </c>
+      <c r="B764" t="n">
+        <v>3</v>
+      </c>
+      <c r="C764" t="n">
+        <v>0.9364376744926153</v>
+      </c>
+      <c r="D764" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="n">
+        <v>490</v>
+      </c>
+      <c r="B765" t="n">
+        <v>4</v>
+      </c>
+      <c r="C765" t="n">
+        <v>0.9314658035701666</v>
+      </c>
+      <c r="D765" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="n">
+        <v>490</v>
+      </c>
+      <c r="B766" t="n">
+        <v>5</v>
+      </c>
+      <c r="C766" t="n">
+        <v>0.9393755040251269</v>
+      </c>
+      <c r="D766" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="n">
+        <v>495</v>
+      </c>
+      <c r="B767" t="n">
+        <v>1</v>
+      </c>
+      <c r="C767" t="n">
+        <v>0.9342449112200358</v>
+      </c>
+      <c r="D767" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="n">
+        <v>495</v>
+      </c>
+      <c r="B768" t="n">
+        <v>2</v>
+      </c>
+      <c r="C768" t="n">
+        <v>0.9341483745484856</v>
+      </c>
+      <c r="D768" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="n">
+        <v>495</v>
+      </c>
+      <c r="B769" t="n">
+        <v>3</v>
+      </c>
+      <c r="C769" t="n">
+        <v>0.9341792696421984</v>
+      </c>
+      <c r="D769" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="n">
+        <v>495</v>
+      </c>
+      <c r="B770" t="n">
+        <v>4</v>
+      </c>
+      <c r="C770" t="n">
+        <v>0.936933822999928</v>
+      </c>
+      <c r="D770" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="n">
+        <v>495</v>
+      </c>
+      <c r="B771" t="n">
+        <v>5</v>
+      </c>
+      <c r="C771" t="n">
+        <v>0.9370479236909599</v>
+      </c>
+      <c r="D771" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="n">
+        <v>500</v>
+      </c>
+      <c r="B772" t="n">
+        <v>1</v>
+      </c>
+      <c r="C772" t="n">
+        <v>0.9328201943766516</v>
+      </c>
+      <c r="D772" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="n">
+        <v>500</v>
+      </c>
+      <c r="B773" t="n">
+        <v>2</v>
+      </c>
+      <c r="C773" t="n">
+        <v>0.935846542093175</v>
+      </c>
+      <c r="D773" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="n">
+        <v>500</v>
+      </c>
+      <c r="B774" t="n">
+        <v>3</v>
+      </c>
+      <c r="C774" t="n">
+        <v>0.9367501920690267</v>
+      </c>
+      <c r="D774" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="n">
+        <v>500</v>
+      </c>
+      <c r="B775" t="n">
+        <v>4</v>
+      </c>
+      <c r="C775" t="n">
+        <v>0.9336965864887309</v>
+      </c>
+      <c r="D775" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="n">
+        <v>500</v>
+      </c>
+      <c r="B776" t="n">
+        <v>5</v>
+      </c>
+      <c r="C776" t="n">
+        <v>0.9359735220269345</v>
+      </c>
+      <c r="D776" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
